--- a/arquivos/PowerBI + SQLServer/2_MODULO  - POWER_BI - Essentials/2_LOCAOÇÃO DE VEICULOS/CLIENTES.xlsx
+++ b/arquivos/PowerBI + SQLServer/2_MODULO  - POWER_BI - Essentials/2_LOCAOÇÃO DE VEICULOS/CLIENTES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\DATA_ANALYTICIS\POWER BI\PROFESSOR\AULA - 2_LOCAOÇÃO DE VEICULOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrocha\Documents\Analise de dados\arquivos\PowerBI + SQLServer\2_MODULO  - POWER_BI - Essentials\2_LOCAOÇÃO DE VEICULOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E089CC99-99C5-4A85-9E5B-BBF61438AA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC2012-0712-4297-AFBE-D3B0E1918A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{A1FE9260-B72C-4EC0-948F-971133375286}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" xr2:uid="{A1FE9260-B72C-4EC0-948F-971133375286}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>NOME</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>OSASCO</t>
+  </si>
+  <si>
+    <t>Danilo</t>
+  </si>
+  <si>
+    <t>BI</t>
   </si>
 </sst>
 </file>
@@ -398,9 +404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,7 +444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -544,7 +550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B085A-D0B1-452C-BF11-97DBB2E9F98B}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,6 +1189,23 @@
         <v>60</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>1010</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="11">
+        <v>6000</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
